--- a/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7DEB267-B2C0-4334-9E42-C34C68E84568}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{483B2AA9-0A45-4C40-B9F6-5C45B1489F7D}"/>
   <bookViews>
-    <workbookView xWindow="-11730" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
   <si>
     <t>Unit</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>Relation_In1_Out1</t>
+  </si>
+  <si>
+    <t>60h</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1235,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,6 +1425,9 @@
       </c>
       <c r="C10" s="4" t="s">
         <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{483B2AA9-0A45-4C40-B9F6-5C45B1489F7D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CBDAA88-D274-4E38-B411-90287AD514EF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>connection_investment_tech_lifetime</t>
   </si>
   <si>
-    <t>number_of_connections</t>
-  </si>
-  <si>
     <t>mean_efficiency</t>
   </si>
   <si>
@@ -449,6 +446,9 @@
   </si>
   <si>
     <t>60h</t>
+  </si>
+  <si>
+    <t>initial_connections_invested_available</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
     <tableColumn id="25" xr3:uid="{D9462AE1-DB02-44C0-8747-2E8EDE32CDCD}" name="vom_cost_Output1"/>
     <tableColumn id="26" xr3:uid="{AA0BB5A2-F981-4351-BEA1-9D08AEE88F00}" name="vom_cost_Output2"/>
     <tableColumn id="27" xr3:uid="{D97F37CE-BA52-4609-805C-4A354B917C73}" name="connection_investment_tech_lifetime"/>
-    <tableColumn id="28" xr3:uid="{9544E63A-C41E-45C8-843A-FAE04C599581}" name="number_of_connections"/>
+    <tableColumn id="28" xr3:uid="{9544E63A-C41E-45C8-843A-FAE04C599581}" name="initial_connections_invested_available"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1252,34 +1252,34 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
       </c>
       <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
-        <v>115</v>
-      </c>
       <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" t="s">
-        <v>89</v>
-      </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
         <v>28</v>
@@ -1288,66 +1288,66 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
       <c r="R1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>0.75</v>
@@ -1363,52 +1363,52 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9">
         <v>0.11929223999999999</v>
@@ -1418,16 +1418,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1452,39 +1452,39 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1529,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
         <v>107</v>
-      </c>
-      <c r="F1" t="s">
-        <v>108</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1541,46 +1541,46 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" t="s">
-        <v>110</v>
-      </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="8"/>
@@ -1595,17 +1595,17 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1620,17 +1620,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1645,24 +1645,24 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1680,21 +1680,21 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1713,24 +1713,24 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1750,25 +1750,25 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1791,21 +1791,21 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1841,19 +1841,19 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1870,32 +1870,32 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" s="9">
         <v>42.75</v>
@@ -1917,19 +1917,19 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1986,7 +1986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2094,30 +2096,30 @@
         <v>35</v>
       </c>
       <c r="AA1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -2150,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -2158,25 +2160,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -2206,7 +2208,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -2214,42 +2216,45 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -2267,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -2333,15 +2338,15 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2356,7 +2361,7 @@
         <v>4.147E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2364,10 +2369,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2376,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2421,97 +2426,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.eco\github_repos\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\Products\jet_fuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CBDAA88-D274-4E38-B411-90287AD514EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DA6B8-E6CE-43B1-ADE7-2080F52F0861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1234,17 +1234,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1316,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1313,7 +1329,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1326,7 +1342,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1339,7 +1355,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1361,7 +1377,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1374,7 +1390,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1387,7 +1403,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -1400,7 +1416,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1416,7 +1432,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
@@ -1435,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -1450,7 +1466,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>100</v>
       </c>
@@ -1463,7 +1479,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
@@ -1476,7 +1492,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>116</v>
       </c>
@@ -1505,17 +1521,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8478C130-C296-4571-ABF4-62E91E9E2767}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -1593,7 +1618,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
@@ -1618,7 +1643,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1643,7 +1668,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -1678,7 +1703,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
@@ -1711,7 +1736,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1748,7 +1773,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1789,7 +1814,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1822,7 +1847,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1839,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -1868,7 +1893,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1915,7 +1940,7 @@
       </c>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>117</v>
       </c>
@@ -1944,7 +1969,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>116</v>
       </c>
@@ -1986,37 +2011,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2099,7 +2124,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2158,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2214,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
@@ -2240,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2293,20 +2318,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2341,7 +2366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -2367,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
@@ -2419,102 +2444,102 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
